--- a/data/large_donations.xlsx
+++ b/data/large_donations.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +454,19 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10203.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/large_donations.xlsx
+++ b/data/large_donations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,19 @@
         <v>10203.54</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/large_donations.xlsx
+++ b/data/large_donations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,188 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Victory Drones</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3089.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>General donations</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/large_donations.xlsx
+++ b/data/large_donations.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,11 @@
           <t>UAH</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Payment method</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -460,11 +465,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10203.54</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -473,11 +483,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -492,6 +507,11 @@
       <c r="C4" t="n">
         <v>350000</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fedwire Credit</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -499,11 +519,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Zelle</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -512,11 +537,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>15000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -525,11 +555,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -538,11 +573,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3089.78</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -551,11 +591,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>12000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Book Transfer</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -564,102 +609,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>General donations</t>
+          <t>General Donations</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45163</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45161</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45160</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45148</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45098</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General donations</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3673</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Zelle</t>
+        </is>
       </c>
     </row>
   </sheetData>
